--- a/data/trans_camb/P43E_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P43E_R-Provincia-trans_camb.xlsx
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-8.696952208141255</v>
+        <v>-10.2941910997183</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.293909556535497</v>
+        <v>1.683111654558456</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.314229002626277</v>
+        <v>8.165180935114625</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.8988943148515</v>
+        <v>16.55016292626118</v>
       </c>
     </row>
     <row r="7">
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1077753961179767</v>
+        <v>-0.1252807039359987</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.01564738319483475</v>
+        <v>0.02070729250269314</v>
       </c>
     </row>
     <row r="9">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1303685217124929</v>
+        <v>0.1133921213256539</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2428848336242108</v>
+        <v>0.2333215356459244</v>
       </c>
     </row>
     <row r="10">
@@ -660,7 +660,7 @@
         <v>6.843903777659033</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-4.261994280089365</v>
+        <v>-4.261994280089354</v>
       </c>
     </row>
     <row r="11">
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.288192033439727</v>
+        <v>1.595195654380224</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-10.56670880218455</v>
+        <v>-11.18588873795707</v>
       </c>
     </row>
     <row r="12">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.7711684535414</v>
+        <v>13.21937271782564</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.378083199869268</v>
+        <v>2.380554521307946</v>
       </c>
     </row>
     <row r="13">
@@ -702,7 +702,7 @@
         <v>0.08713756447232358</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.05426432244332231</v>
+        <v>-0.05426432244332217</v>
       </c>
     </row>
     <row r="14">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.01646048548536174</v>
+        <v>0.02058269641257443</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.132347377404133</v>
+        <v>-0.1375230958265568</v>
       </c>
     </row>
     <row r="15">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.173813675047738</v>
+        <v>0.176170634800117</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.0308527374695285</v>
+        <v>0.03177489735464438</v>
       </c>
     </row>
     <row r="16">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>13.67377355492346</v>
+        <v>13.08101544799446</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1176656206910507</v>
+        <v>-0.8646942716645636</v>
       </c>
     </row>
     <row r="18">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>28.67231151381156</v>
+        <v>28.5812069362609</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.73863904796627</v>
+        <v>16.41131034572382</v>
       </c>
     </row>
     <row r="19">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1696555643478674</v>
+        <v>0.1595463088160184</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.001670016720824109</v>
+        <v>-0.01029676805817017</v>
       </c>
     </row>
     <row r="21">
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.4318552421968954</v>
+        <v>0.4218886859965159</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.24738839896007</v>
+        <v>0.2428478775943596</v>
       </c>
     </row>
     <row r="22">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>7.709159810887744</v>
+        <v>6.306772279977273</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.45287595553277</v>
+        <v>-1.357867391406058</v>
       </c>
     </row>
     <row r="24">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>21.13003003024698</v>
+        <v>20.97863090206272</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>13.23589453337015</v>
+        <v>12.70106461155273</v>
       </c>
     </row>
     <row r="25">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1030195349148081</v>
+        <v>0.0834744373948117</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.01901791817734769</v>
+        <v>-0.01597061701586466</v>
       </c>
     </row>
     <row r="27">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3081679089228444</v>
+        <v>0.3051794328029384</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1916327456600678</v>
+        <v>0.1869009588076652</v>
       </c>
     </row>
     <row r="28">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.5071568950928229</v>
+        <v>0.7633778521906305</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-14.61436741545431</v>
+        <v>-13.7842434314053</v>
       </c>
     </row>
     <row r="30">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>19.04794089816978</v>
+        <v>20.31586849738424</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.128755177864162</v>
+        <v>7.084790848380544</v>
       </c>
     </row>
     <row r="31">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.002198309202255842</v>
+        <v>0.01009430002465895</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1744902088761265</v>
+        <v>-0.1681443258372777</v>
       </c>
     </row>
     <row r="33">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2649140270842203</v>
+        <v>0.2815352984037768</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.08517963666583551</v>
+        <v>0.09728629863716226</v>
       </c>
     </row>
     <row r="34">
@@ -1012,7 +1012,7 @@
         <v>-6.485796855535087</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>0.7994157743782759</v>
+        <v>0.7994157743782537</v>
       </c>
     </row>
     <row r="35">
@@ -1023,10 +1023,10 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-20.26177017798461</v>
+        <v>-19.16328623790638</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-8.025865447545574</v>
+        <v>-7.203562960665076</v>
       </c>
     </row>
     <row r="36">
@@ -1037,10 +1037,10 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>6.435546124477301</v>
+        <v>7.218207094657767</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>10.07936785589771</v>
+        <v>10.7814189179706</v>
       </c>
     </row>
     <row r="37">
@@ -1054,7 +1054,7 @@
         <v>-0.08025575189298095</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>0.009892032617870987</v>
+        <v>0.009892032617870711</v>
       </c>
     </row>
     <row r="38">
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.240640638268077</v>
+        <v>-0.2330718462182363</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.09293718451455513</v>
+        <v>-0.08608881048054981</v>
       </c>
     </row>
     <row r="39">
@@ -1079,10 +1079,10 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.08245128215249502</v>
+        <v>0.08932302883914646</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.1369910351343213</v>
+        <v>0.1446885661991204</v>
       </c>
     </row>
     <row r="40">
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-3.880335621102752</v>
+        <v>-3.502609741023645</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-23.65811032428999</v>
+        <v>-23.30974459799714</v>
       </c>
     </row>
     <row r="42">
@@ -1125,10 +1125,10 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>8.688893260803578</v>
+        <v>7.894625598294967</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-11.20250807391039</v>
+        <v>-10.81101505617371</v>
       </c>
     </row>
     <row r="43">
@@ -1153,10 +1153,10 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.04944630695298531</v>
+        <v>-0.04414082831452744</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.3001487561974762</v>
+        <v>-0.3006991014240075</v>
       </c>
     </row>
     <row r="45">
@@ -1167,10 +1167,10 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.1199327924145499</v>
+        <v>0.1090862709710321</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.1514666991501896</v>
+        <v>-0.1480369698308861</v>
       </c>
     </row>
     <row r="46">
@@ -1188,7 +1188,7 @@
         <v>4.013965364691363</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>7.367093572880945</v>
+        <v>7.367093572880956</v>
       </c>
     </row>
     <row r="47">
@@ -1199,10 +1199,10 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.149090763312786</v>
+        <v>-0.808167024612257</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>1.513154271755537</v>
+        <v>2.055741975884501</v>
       </c>
     </row>
     <row r="48">
@@ -1213,10 +1213,10 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>8.962091884841687</v>
+        <v>9.522642742750072</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>12.36169652371895</v>
+        <v>12.58536828374551</v>
       </c>
     </row>
     <row r="49">
@@ -1230,7 +1230,7 @@
         <v>0.05118288439292977</v>
       </c>
       <c r="D49" s="6" t="n">
-        <v>0.09393930051552761</v>
+        <v>0.09393930051552775</v>
       </c>
     </row>
     <row r="50">
@@ -1241,10 +1241,10 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.01495285094287044</v>
+        <v>-0.009529453013001161</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.01948410586731686</v>
+        <v>0.02606223467386926</v>
       </c>
     </row>
     <row r="51">
@@ -1255,10 +1255,10 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.1178677825965684</v>
+        <v>0.1247690586723909</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.1635790410717503</v>
+        <v>0.1714875595914663</v>
       </c>
     </row>
     <row r="52">
@@ -1276,7 +1276,7 @@
         <v>6.613810958360745</v>
       </c>
       <c r="D52" s="5" t="n">
-        <v>-1.548087919728613</v>
+        <v>-1.548087919728591</v>
       </c>
     </row>
     <row r="53">
@@ -1287,10 +1287,10 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>4.101570053189393</v>
+        <v>4.034687294125358</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-4.327613756250329</v>
+        <v>-4.182522167159603</v>
       </c>
     </row>
     <row r="54">
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>8.95705072094488</v>
+        <v>9.042757411335495</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>0.8500192079459741</v>
+        <v>1.133625677323121</v>
       </c>
     </row>
     <row r="55">
@@ -1318,7 +1318,7 @@
         <v>0.08590056135013381</v>
       </c>
       <c r="D55" s="6" t="n">
-        <v>-0.02010665592973174</v>
+        <v>-0.02010665592973145</v>
       </c>
     </row>
     <row r="56">
@@ -1329,10 +1329,10 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.05239696674197972</v>
+        <v>0.05141813623038291</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.0550324610596945</v>
+        <v>-0.05367661554723646</v>
       </c>
     </row>
     <row r="57">
@@ -1343,10 +1343,10 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.1190477748176437</v>
+        <v>0.1191285296112951</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.01134081540903076</v>
+        <v>0.01480487178270908</v>
       </c>
     </row>
     <row r="58">
